--- a/classeurs/mise_en_forme.xlsx
+++ b/classeurs/mise_en_forme.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Actvité 12" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Actvité 16" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -53,6 +53,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -144,78 +149,78 @@
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>